--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nts</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.16778158595088</v>
+        <v>2.729615</v>
       </c>
       <c r="H2">
-        <v>2.16778158595088</v>
+        <v>8.188845000000001</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8986540674935011</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9300737996692831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N2">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O2">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P2">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q2">
-        <v>1.861734785308295</v>
+        <v>2.648784730748334</v>
       </c>
       <c r="R2">
-        <v>1.861734785308295</v>
+        <v>23.839062576735</v>
       </c>
       <c r="S2">
-        <v>0.03583464644574196</v>
+        <v>0.03545459250811839</v>
       </c>
       <c r="T2">
-        <v>0.03583464644574196</v>
+        <v>0.04422192899468147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.16778158595088</v>
+        <v>2.729615</v>
       </c>
       <c r="H3">
-        <v>2.16778158595088</v>
+        <v>8.188845000000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8986540674935011</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9300737996692831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N3">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O3">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P3">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q3">
-        <v>1.948151555301123</v>
+        <v>2.842055120823334</v>
       </c>
       <c r="R3">
-        <v>1.948151555301123</v>
+        <v>25.57849608741</v>
       </c>
       <c r="S3">
-        <v>0.0374979952879688</v>
+        <v>0.03804156110713259</v>
       </c>
       <c r="T3">
-        <v>0.0374979952879688</v>
+        <v>0.04744861229870988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.16778158595088</v>
+        <v>2.729615</v>
       </c>
       <c r="H4">
-        <v>2.16778158595088</v>
+        <v>8.188845000000001</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8986540674935011</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9300737996692831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N4">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O4">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P4">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q4">
-        <v>10.86781153820113</v>
+        <v>14.11268640863667</v>
       </c>
       <c r="R4">
-        <v>10.86781153820113</v>
+        <v>127.01417767773</v>
       </c>
       <c r="S4">
-        <v>0.209183492290983</v>
+        <v>0.188901551720933</v>
       </c>
       <c r="T4">
-        <v>0.209183492290983</v>
+        <v>0.2356137926356209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.16778158595088</v>
+        <v>2.729615</v>
       </c>
       <c r="H5">
-        <v>2.16778158595088</v>
+        <v>8.188845000000001</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8986540674935011</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9300737996692831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N5">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O5">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P5">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q5">
-        <v>10.04851309522651</v>
+        <v>13.24839203349667</v>
       </c>
       <c r="R5">
-        <v>10.04851309522651</v>
+        <v>119.23552830147</v>
       </c>
       <c r="S5">
-        <v>0.1934136467312243</v>
+        <v>0.1773327728307775</v>
       </c>
       <c r="T5">
-        <v>0.1934136467312243</v>
+        <v>0.2211842453627682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.729615</v>
+      </c>
+      <c r="H6">
+        <v>8.188845000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.8986540674935011</v>
+      </c>
+      <c r="J6">
+        <v>0.9300737996692831</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>12.56068</v>
+      </c>
+      <c r="N6">
+        <v>25.12136</v>
+      </c>
+      <c r="O6">
+        <v>0.5106788094851177</v>
+      </c>
+      <c r="P6">
+        <v>0.4102956351562577</v>
+      </c>
+      <c r="Q6">
+        <v>34.28582053820001</v>
+      </c>
+      <c r="R6">
+        <v>205.7149232292</v>
+      </c>
+      <c r="S6">
+        <v>0.4589235893265397</v>
+      </c>
+      <c r="T6">
+        <v>0.3816052203775025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.307833</v>
+      </c>
+      <c r="H7">
+        <v>0.615666</v>
+      </c>
+      <c r="I7">
+        <v>0.1013459325064989</v>
+      </c>
+      <c r="J7">
+        <v>0.06992620033071682</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9703876666666668</v>
+      </c>
+      <c r="N7">
+        <v>2.911163</v>
+      </c>
+      <c r="O7">
+        <v>0.03945299285965207</v>
+      </c>
+      <c r="P7">
+        <v>0.04754668824173519</v>
+      </c>
+      <c r="Q7">
+        <v>0.298717346593</v>
+      </c>
+      <c r="R7">
+        <v>1.792304079558</v>
+      </c>
+      <c r="S7">
+        <v>0.003998400351533681</v>
+      </c>
+      <c r="T7">
+        <v>0.003324759247053713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.307833</v>
+      </c>
+      <c r="H8">
+        <v>0.615666</v>
+      </c>
+      <c r="I8">
+        <v>0.1013459325064989</v>
+      </c>
+      <c r="J8">
+        <v>0.06992620033071682</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.041192666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.123578</v>
+      </c>
+      <c r="O8">
+        <v>0.04233170747586662</v>
+      </c>
+      <c r="P8">
+        <v>0.05101596487889641</v>
+      </c>
+      <c r="Q8">
+        <v>0.320513462158</v>
+      </c>
+      <c r="R8">
+        <v>1.923080772948</v>
+      </c>
+      <c r="S8">
+        <v>0.004290146368734032</v>
+      </c>
+      <c r="T8">
+        <v>0.003567352580186524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.307833</v>
+      </c>
+      <c r="H9">
+        <v>0.615666</v>
+      </c>
+      <c r="I9">
+        <v>0.1013459325064989</v>
+      </c>
+      <c r="J9">
+        <v>0.06992620033071682</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.170211333333333</v>
+      </c>
+      <c r="N9">
+        <v>15.510634</v>
+      </c>
+      <c r="O9">
+        <v>0.2102049704707969</v>
+      </c>
+      <c r="P9">
+        <v>0.2533280614069559</v>
+      </c>
+      <c r="Q9">
+        <v>1.591561665374</v>
+      </c>
+      <c r="R9">
+        <v>9.549369992244001</v>
+      </c>
+      <c r="S9">
+        <v>0.02130341874986397</v>
+      </c>
+      <c r="T9">
+        <v>0.01771426877133493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.16778158595088</v>
-      </c>
-      <c r="H6">
-        <v>2.16778158595088</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>12.559971320227</v>
-      </c>
-      <c r="N6">
-        <v>12.559971320227</v>
-      </c>
-      <c r="O6">
-        <v>0.5240702192440819</v>
-      </c>
-      <c r="P6">
-        <v>0.5240702192440819</v>
-      </c>
-      <c r="Q6">
-        <v>27.22727454805925</v>
-      </c>
-      <c r="R6">
-        <v>27.22727454805925</v>
-      </c>
-      <c r="S6">
-        <v>0.5240702192440819</v>
-      </c>
-      <c r="T6">
-        <v>0.5240702192440819</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.307833</v>
+      </c>
+      <c r="H10">
+        <v>0.615666</v>
+      </c>
+      <c r="I10">
+        <v>0.1013459325064989</v>
+      </c>
+      <c r="J10">
+        <v>0.06992620033071682</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.853575333333334</v>
+      </c>
+      <c r="N10">
+        <v>14.560726</v>
+      </c>
+      <c r="O10">
+        <v>0.1973315197085667</v>
+      </c>
+      <c r="P10">
+        <v>0.2378136503161547</v>
+      </c>
+      <c r="Q10">
+        <v>1.494090655586</v>
+      </c>
+      <c r="R10">
+        <v>8.964543933516001</v>
+      </c>
+      <c r="S10">
+        <v>0.01999874687778926</v>
+      </c>
+      <c r="T10">
+        <v>0.01662940495338647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.307833</v>
+      </c>
+      <c r="H11">
+        <v>0.615666</v>
+      </c>
+      <c r="I11">
+        <v>0.1013459325064989</v>
+      </c>
+      <c r="J11">
+        <v>0.06992620033071682</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.56068</v>
+      </c>
+      <c r="N11">
+        <v>25.12136</v>
+      </c>
+      <c r="O11">
+        <v>0.5106788094851177</v>
+      </c>
+      <c r="P11">
+        <v>0.4102956351562577</v>
+      </c>
+      <c r="Q11">
+        <v>3.86659180644</v>
+      </c>
+      <c r="R11">
+        <v>15.46636722576</v>
+      </c>
+      <c r="S11">
+        <v>0.05175522015857793</v>
+      </c>
+      <c r="T11">
+        <v>0.02869041477875518</v>
       </c>
     </row>
   </sheetData>
